--- a/openData/source/gzdata.xlsx
+++ b/openData/source/gzdata.xlsx
@@ -457,6 +457,18 @@
     <t>2016-10-16 23:30:00</t>
   </si>
   <si>
+    <t>全省第一批少数民族特色村寨名单</t>
+  </si>
+  <si>
+    <t>全省第一批少数民族特色村寨名单，包括：贵阳市、遵义市、六盘水市、安顺市、毕节市、铜仁市、黔东南苗族侗族自治州、黔南布依族苗族自治州、黔西南布依族苗族自治州。</t>
+  </si>
+  <si>
+    <t>贵州省民族宗教事务委员会</t>
+  </si>
+  <si>
+    <t>2016-12-29 16:15:26</t>
+  </si>
+  <si>
     <t>中小企业公共服务示范平台目录</t>
   </si>
   <si>
@@ -469,18 +481,6 @@
     <t>['xlsx', 'xlsx', 'xlsx', 'xlsx']</t>
   </si>
   <si>
-    <t>全省第一批少数民族特色村寨名单</t>
-  </si>
-  <si>
-    <t>全省第一批少数民族特色村寨名单，包括：贵阳市、遵义市、六盘水市、安顺市、毕节市、铜仁市、黔东南苗族侗族自治州、黔南布依族苗族自治州、黔西南布依族苗族自治州。</t>
-  </si>
-  <si>
-    <t>贵州省民族宗教事务委员会</t>
-  </si>
-  <si>
-    <t>2016-12-29 16:15:26</t>
-  </si>
-  <si>
     <t>一般科技专利资助明细</t>
   </si>
   <si>
@@ -520,6 +520,15 @@
     <t>贵州省体育局</t>
   </si>
   <si>
+    <t>年度卫生</t>
+  </si>
+  <si>
+    <t>贵州省年度卫生统计数据。包含：卫生机构数、卫生机构床位数、卫生技术人员数、每万人口拥有</t>
+  </si>
+  <si>
+    <t>2016-10-17 12:30:00</t>
+  </si>
+  <si>
     <t>医院信息表</t>
   </si>
   <si>
@@ -535,15 +544,6 @@
     <t>2016-10-17 15:45:00</t>
   </si>
   <si>
-    <t>年度卫生</t>
-  </si>
-  <si>
-    <t>贵州省年度卫生统计数据。包含：卫生机构数、卫生机构床位数、卫生技术人员数、每万人口拥有</t>
-  </si>
-  <si>
-    <t>2016-10-17 12:30:00</t>
-  </si>
-  <si>
     <t>年度主要工业产品产量统计</t>
   </si>
   <si>
@@ -712,6 +712,18 @@
     <t>2016-12-19 18:31:58</t>
   </si>
   <si>
+    <t>贵州省人社厅年度部门决算及“三公”经费决算数据</t>
+  </si>
+  <si>
+    <t>贵州省人力资源和社会保障厅2012、2013、2014和2015年度部门决算及“三公”经费决算数据</t>
+  </si>
+  <si>
+    <t>2017-11-20 09:38:15</t>
+  </si>
+  <si>
+    <t>['docx', 'xls', 'doc', 'xls', 'docx']</t>
+  </si>
+  <si>
     <t>贵州省第六次全国体育场地数量及面积普查数据（按系统分布）</t>
   </si>
   <si>
@@ -721,18 +733,6 @@
     <t>2016-10-17 11:10:00</t>
   </si>
   <si>
-    <t>贵州省人社厅年度部门决算及“三公”经费决算数据</t>
-  </si>
-  <si>
-    <t>贵州省人力资源和社会保障厅2012、2013、2014和2015年度部门决算及“三公”经费决算数据</t>
-  </si>
-  <si>
-    <t>2017-11-20 09:38:15</t>
-  </si>
-  <si>
-    <t>['docx', 'xls', 'doc', 'xls', 'docx']</t>
-  </si>
-  <si>
     <t>贵州建材产业信息</t>
   </si>
   <si>
@@ -748,36 +748,51 @@
     <t>['xlsx', 'xlsx', 'xlsx', 'xlsx', 'xlsx']</t>
   </si>
   <si>
+    <t>贵州省第六次全国体育场地数量及面积普查数据（按类型分布）</t>
+  </si>
+  <si>
+    <t>各类型体育场地数量及面积情况，包括：场地个数、场地面积、占比以及场地数量排名靠前、场地面积排名靠前的场地类型情况</t>
+  </si>
+  <si>
+    <t>参公管理事业单位及厅属事业单位</t>
+  </si>
+  <si>
+    <t>贵州省住房和城乡建设厅参公管理事业单位及厅属事业单位信息</t>
+  </si>
+  <si>
     <t>贵州省第六次全国体育场地数量及面积普查数据（按单位分布）</t>
   </si>
   <si>
     <t>各单位体育场地数量及面积情况，包括：行政机关、事业单位、企业和其他单位的场地个数、场地面积以及占比</t>
   </si>
   <si>
-    <t>贵州省第六次全国体育场地数量及面积普查数据（按类型分布）</t>
-  </si>
-  <si>
-    <t>各类型体育场地数量及面积情况，包括：场地个数、场地面积、占比以及场地数量排名靠前、场地面积排名靠前的场地类型情况</t>
-  </si>
-  <si>
     <t>贵州省建筑工程质量治理两年行动 工作开展情况月统计表</t>
   </si>
   <si>
     <t>贵州省建筑工程质量治理两年行动工作开展情况月统计表，包含2014年11月至2015年12月</t>
   </si>
   <si>
-    <t>参公管理事业单位及厅属事业单位</t>
-  </si>
-  <si>
-    <t>贵州省住房和城乡建设厅参公管理事业单位及厅属事业单位信息</t>
-  </si>
-  <si>
     <t>贵州省省本级医疗保险联网结算医疗机构名录</t>
   </si>
   <si>
     <t>贵州省省本级医疗保险联网结算医疗机构名录，包含：医疗机构名称、联系电话、地址等信息</t>
   </si>
   <si>
+    <t>截至2015年末在省工商局登记的企业名单</t>
+  </si>
+  <si>
+    <t>截至2015年末在省工商局登记的企业名单，包括企业名称、注册号、住所行政区划、住所、企业类型、行业代码、注册资本、法定代表人、成立日期、核准日期、PARID。</t>
+  </si>
+  <si>
+    <t>贵州省工商行政管理局</t>
+  </si>
+  <si>
+    <t>2017-05-23 13:01:03</t>
+  </si>
+  <si>
+    <t>['xls', 'xls', 'xls']</t>
+  </si>
+  <si>
     <t>医疗卫生机构床位人员数</t>
   </si>
   <si>
@@ -793,21 +808,6 @@
     <t>2016-10-14 22:15:00</t>
   </si>
   <si>
-    <t>截至2015年末在省工商局登记的企业名单</t>
-  </si>
-  <si>
-    <t>截至2015年末在省工商局登记的企业名单，包括企业名称、注册号、住所行政区划、住所、企业类型、行业代码、注册资本、法定代表人、成立日期、核准日期、PARID。</t>
-  </si>
-  <si>
-    <t>贵州省工商行政管理局</t>
-  </si>
-  <si>
-    <t>2017-05-23 13:01:03</t>
-  </si>
-  <si>
-    <t>['xls', 'xls', 'xls']</t>
-  </si>
-  <si>
     <t>医疗专家停诊</t>
   </si>
   <si>
@@ -1063,6 +1063,18 @@
     <t>2016-12-26 11:20:23</t>
   </si>
   <si>
+    <t>全省100个旅游景区建设名单</t>
+  </si>
+  <si>
+    <t>2017-05-23 10:47:16</t>
+  </si>
+  <si>
+    <t>2015医疗卫生机构门诊病人人均医疗费用</t>
+  </si>
+  <si>
+    <t>医疗机构分类、门诊病人次均诊疗费用、挂号费、诊查费、检查费、化验费、治疗费、手术费、卫生材料费、药费、药事服务费</t>
+  </si>
+  <si>
     <t>产业平台门户信息</t>
   </si>
   <si>
@@ -1084,12 +1096,6 @@
     <t>2016-12-26 09:58:07</t>
   </si>
   <si>
-    <t>全省100个旅游景区建设名单</t>
-  </si>
-  <si>
-    <t>2017-05-23 10:47:16</t>
-  </si>
-  <si>
     <t>贵州省旅游饭店目录</t>
   </si>
   <si>
@@ -1099,12 +1105,6 @@
     <t>2017-05-23 10:47:18</t>
   </si>
   <si>
-    <t>2015医疗卫生机构门诊病人人均医疗费用</t>
-  </si>
-  <si>
-    <t>医疗机构分类、门诊病人次均诊疗费用、挂号费、诊查费、检查费、化验费、治疗费、手术费、卫生材料费、药费、药事服务费</t>
-  </si>
-  <si>
     <t>贵州省降水极端事件</t>
   </si>
   <si>
@@ -1438,6 +1438,18 @@
     <t>2017-05-22 17:10:51</t>
   </si>
   <si>
+    <t>工业云大数据服务团队目录</t>
+  </si>
+  <si>
+    <t>主要收录工业云大数据服务团队信息</t>
+  </si>
+  <si>
+    <t>工业云</t>
+  </si>
+  <si>
+    <t>2017-08-07 14:39:42</t>
+  </si>
+  <si>
     <t>医疗卫生机构病床使用情况，包括机构分类、编制床位、特需服务、负压病房、实际开发总床位、平均开放病床数、实际占用总床位数、出院者占用总床位数、观察床数、全年开设家庭病床总数、病床周转次数、病床工作日、病床使用率、出院者平均住院日。</t>
   </si>
   <si>
@@ -1483,18 +1495,6 @@
     <t>2017-06-02 11:33:04</t>
   </si>
   <si>
-    <t>工业云大数据服务团队目录</t>
-  </si>
-  <si>
-    <t>主要收录工业云大数据服务团队信息</t>
-  </si>
-  <si>
-    <t>工业云</t>
-  </si>
-  <si>
-    <t>2017-08-07 14:39:42</t>
-  </si>
-  <si>
     <t>律师事务所信息列表</t>
   </si>
   <si>
@@ -1507,6 +1507,12 @@
     <t>2017-05-22 14:28:40</t>
   </si>
   <si>
+    <t>全省首批专家导游人员名单</t>
+  </si>
+  <si>
+    <t>2017-05-23 10:47:24</t>
+  </si>
+  <si>
     <t>贵州省体育局一般公共预算财政拨款基本支出决算表</t>
   </si>
   <si>
@@ -1535,12 +1541,6 @@
   </si>
   <si>
     <t>2017-05-22 20:22:34</t>
-  </si>
-  <si>
-    <t>全省首批专家导游人员名单</t>
-  </si>
-  <si>
-    <t>2017-05-23 10:47:24</t>
   </si>
   <si>
     <t>被省工商局列入经营异常名录的企业名单</t>
@@ -4090,7 +4090,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
+        <fgColor rgb="FF90EE90"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5238,16 +5238,16 @@
         <v>148</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D43" t="s">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="E43" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F43" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -5258,16 +5258,16 @@
         <v>152</v>
       </c>
       <c r="C44" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" t="s">
         <v>153</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>154</v>
-      </c>
-      <c r="F44" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -5378,36 +5378,36 @@
         <v>169</v>
       </c>
       <c r="C50" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>72</v>
+        <v>170</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B51" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C51" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="D51" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="E51" t="s">
-        <v>172</v>
+        <v>72</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -5418,10 +5418,10 @@
         <v>174</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c r="E52" t="s">
         <v>175</v>
@@ -5858,36 +5858,36 @@
         <v>233</v>
       </c>
       <c r="C74" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="D74" t="s">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="E74" t="s">
         <v>234</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
+        <v>235</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B75" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C75" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>167</v>
       </c>
       <c r="E75" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F75" t="s">
-        <v>238</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -5924,7 +5924,7 @@
         <v>167</v>
       </c>
       <c r="E77" t="s">
-        <v>226</v>
+        <v>113</v>
       </c>
       <c r="F77" t="s">
         <v>11</v>
@@ -5938,16 +5938,16 @@
         <v>247</v>
       </c>
       <c r="C78" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D78" t="s">
-        <v>167</v>
+        <v>49</v>
       </c>
       <c r="E78" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -5958,16 +5958,16 @@
         <v>249</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="D79" t="s">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="E79" t="s">
-        <v>113</v>
+        <v>226</v>
       </c>
       <c r="F79" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -5978,13 +5978,13 @@
         <v>251</v>
       </c>
       <c r="C80" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="D80" t="s">
         <v>49</v>
       </c>
       <c r="E80" t="s">
-        <v>178</v>
+        <v>113</v>
       </c>
       <c r="F80" t="s">
         <v>56</v>
@@ -6018,56 +6018,56 @@
         <v>255</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D82" t="s">
-        <v>37</v>
+        <v>256</v>
       </c>
       <c r="E82" t="s">
-        <v>113</v>
+        <v>257</v>
       </c>
       <c r="F82" t="s">
-        <v>56</v>
+        <v>258</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B83" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C83" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E83" t="s">
-        <v>258</v>
+        <v>113</v>
       </c>
       <c r="F83" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B84" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C84" t="s">
         <v>24</v>
       </c>
       <c r="D84" t="s">
-        <v>261</v>
+        <v>9</v>
       </c>
       <c r="E84" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F84" t="s">
-        <v>263</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -6144,7 +6144,7 @@
         <v>167</v>
       </c>
       <c r="E88" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F88" t="s">
         <v>11</v>
@@ -6284,7 +6284,7 @@
         <v>37</v>
       </c>
       <c r="E95" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F95" t="s">
         <v>31</v>
@@ -6755,99 +6755,99 @@
         <v>349</v>
       </c>
       <c r="B119" t="s">
+        <v>349</v>
+      </c>
+      <c r="C119" t="s">
+        <v>48</v>
+      </c>
+      <c r="D119" t="s">
+        <v>80</v>
+      </c>
+      <c r="E119" t="s">
         <v>350</v>
       </c>
-      <c r="C119" t="s">
-        <v>351</v>
-      </c>
-      <c r="D119" t="s">
-        <v>20</v>
-      </c>
-      <c r="E119" t="s">
-        <v>352</v>
-      </c>
       <c r="F119" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B120" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C120" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="D120" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E120" t="s">
-        <v>355</v>
+        <v>113</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
+        <v>353</v>
+      </c>
+      <c r="B121" t="s">
+        <v>354</v>
+      </c>
+      <c r="C121" t="s">
+        <v>355</v>
+      </c>
+      <c r="D121" t="s">
+        <v>20</v>
+      </c>
+      <c r="E121" t="s">
         <v>356</v>
       </c>
-      <c r="B121" t="s">
-        <v>356</v>
-      </c>
-      <c r="C121" t="s">
-        <v>48</v>
-      </c>
-      <c r="D121" t="s">
-        <v>80</v>
-      </c>
-      <c r="E121" t="s">
-        <v>357</v>
-      </c>
       <c r="F121" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
+        <v>357</v>
+      </c>
+      <c r="B122" t="s">
         <v>358</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
+        <v>59</v>
+      </c>
+      <c r="D122" t="s">
+        <v>20</v>
+      </c>
+      <c r="E122" t="s">
         <v>359</v>
       </c>
-      <c r="C122" t="s">
-        <v>24</v>
-      </c>
-      <c r="D122" t="s">
-        <v>80</v>
-      </c>
-      <c r="E122" t="s">
-        <v>360</v>
-      </c>
       <c r="F122" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
+        <v>360</v>
+      </c>
+      <c r="B123" t="s">
         <v>361</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
+        <v>24</v>
+      </c>
+      <c r="D123" t="s">
+        <v>80</v>
+      </c>
+      <c r="E123" t="s">
         <v>362</v>
       </c>
-      <c r="C123" t="s">
-        <v>14</v>
-      </c>
-      <c r="D123" t="s">
-        <v>37</v>
-      </c>
-      <c r="E123" t="s">
-        <v>113</v>
-      </c>
       <c r="F123" t="s">
-        <v>56</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -7061,7 +7061,7 @@
         <v>59</v>
       </c>
       <c r="D134" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E134" t="s">
         <v>396</v>
@@ -7441,7 +7441,7 @@
         <v>59</v>
       </c>
       <c r="D153" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E153" t="s">
         <v>453</v>
@@ -7461,7 +7461,7 @@
         <v>24</v>
       </c>
       <c r="D154" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E154" t="s">
         <v>456</v>
@@ -7572,42 +7572,42 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>120</v>
+        <v>474</v>
       </c>
       <c r="B160" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>476</v>
       </c>
       <c r="D160" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E160" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F160" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>476</v>
+        <v>120</v>
       </c>
       <c r="B161" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C161" t="s">
         <v>8</v>
       </c>
       <c r="D161" t="s">
-        <v>478</v>
+        <v>37</v>
       </c>
       <c r="E161" t="s">
         <v>479</v>
       </c>
       <c r="F161" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -7615,19 +7615,19 @@
         <v>480</v>
       </c>
       <c r="B162" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C162" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D162" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E162" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F162" t="s">
-        <v>483</v>
+        <v>11</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -7638,33 +7638,33 @@
         <v>484</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D163" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="E163" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F163" t="s">
-        <v>56</v>
+        <v>487</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B164" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C164" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D164" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="E164" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F164" t="s">
         <v>56</v>
@@ -7672,22 +7672,22 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B165" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C165" t="s">
-        <v>491</v>
+        <v>54</v>
       </c>
       <c r="D165" t="s">
-        <v>20</v>
+        <v>459</v>
       </c>
       <c r="E165" t="s">
         <v>492</v>
       </c>
       <c r="F165" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -7715,16 +7715,16 @@
         <v>497</v>
       </c>
       <c r="B167" t="s">
+        <v>497</v>
+      </c>
+      <c r="C167" t="s">
+        <v>59</v>
+      </c>
+      <c r="D167" t="s">
+        <v>80</v>
+      </c>
+      <c r="E167" t="s">
         <v>498</v>
-      </c>
-      <c r="C167" t="s">
-        <v>19</v>
-      </c>
-      <c r="D167" t="s">
-        <v>167</v>
-      </c>
-      <c r="E167" t="s">
-        <v>499</v>
       </c>
       <c r="F167" t="s">
         <v>56</v>
@@ -7732,76 +7732,76 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
+        <v>499</v>
+      </c>
+      <c r="B168" t="s">
         <v>500</v>
       </c>
-      <c r="B168" t="s">
+      <c r="C168" t="s">
+        <v>19</v>
+      </c>
+      <c r="D168" t="s">
+        <v>167</v>
+      </c>
+      <c r="E168" t="s">
         <v>501</v>
       </c>
-      <c r="C168" t="s">
-        <v>14</v>
-      </c>
-      <c r="D168" t="s">
-        <v>372</v>
-      </c>
-      <c r="E168" t="s">
-        <v>502</v>
-      </c>
       <c r="F168" t="s">
-        <v>374</v>
+        <v>56</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" t="s">
+        <v>502</v>
+      </c>
+      <c r="B169" t="s">
         <v>503</v>
       </c>
-      <c r="B169" t="s">
+      <c r="C169" t="s">
+        <v>14</v>
+      </c>
+      <c r="D169" t="s">
+        <v>372</v>
+      </c>
+      <c r="E169" t="s">
         <v>504</v>
       </c>
-      <c r="C169" t="s">
-        <v>48</v>
-      </c>
-      <c r="D169" t="s">
-        <v>75</v>
-      </c>
-      <c r="E169" t="s">
-        <v>505</v>
-      </c>
       <c r="F169" t="s">
-        <v>406</v>
+        <v>374</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>418</v>
+        <v>505</v>
       </c>
       <c r="B170" t="s">
-        <v>419</v>
+        <v>506</v>
       </c>
       <c r="C170" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D170" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="E170" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F170" t="s">
-        <v>56</v>
+        <v>406</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>507</v>
+        <v>418</v>
       </c>
       <c r="B171" t="s">
-        <v>507</v>
+        <v>419</v>
       </c>
       <c r="C171" t="s">
         <v>59</v>
       </c>
       <c r="D171" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="E171" t="s">
         <v>508</v>
@@ -7821,7 +7821,7 @@
         <v>24</v>
       </c>
       <c r="D172" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E172" t="s">
         <v>511</v>
@@ -7921,7 +7921,7 @@
         <v>24</v>
       </c>
       <c r="D177" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="E177" t="s">
         <v>525</v>
@@ -8101,7 +8101,7 @@
         <v>24</v>
       </c>
       <c r="D186" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="E186" t="s">
         <v>550</v>
@@ -8401,7 +8401,7 @@
         <v>14</v>
       </c>
       <c r="D201" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E201" t="s">
         <v>596</v>
@@ -8421,7 +8421,7 @@
         <v>24</v>
       </c>
       <c r="D202" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E202" t="s">
         <v>599</v>
@@ -8461,7 +8461,7 @@
         <v>54</v>
       </c>
       <c r="D204" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E204" t="s">
         <v>605</v>
@@ -8661,7 +8661,7 @@
         <v>24</v>
       </c>
       <c r="D214" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E214" t="s">
         <v>633</v>
@@ -8721,7 +8721,7 @@
         <v>19</v>
       </c>
       <c r="D217" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E217" t="s">
         <v>643</v>
@@ -8732,7 +8732,7 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B218" t="s">
         <v>644</v>
@@ -8741,7 +8741,7 @@
         <v>14</v>
       </c>
       <c r="D218" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E218" t="s">
         <v>645</v>
@@ -8927,7 +8927,7 @@
         <v>674</v>
       </c>
       <c r="F227" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -8961,7 +8961,7 @@
         <v>24</v>
       </c>
       <c r="D229" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="E229" t="s">
         <v>680</v>
@@ -9081,7 +9081,7 @@
         <v>14</v>
       </c>
       <c r="D235" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E235" t="s">
         <v>697</v>
@@ -9281,7 +9281,7 @@
         <v>19</v>
       </c>
       <c r="D245" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="E245" t="s">
         <v>724</v>
@@ -9441,7 +9441,7 @@
         <v>59</v>
       </c>
       <c r="D253" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E253" t="s">
         <v>744</v>
@@ -9961,7 +9961,7 @@
         <v>24</v>
       </c>
       <c r="D279" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="E279" t="s">
         <v>813</v>
@@ -10261,7 +10261,7 @@
         <v>59</v>
       </c>
       <c r="D294" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E294" t="s">
         <v>856</v>
@@ -10441,7 +10441,7 @@
         <v>59</v>
       </c>
       <c r="D303" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="E303" t="s">
         <v>880</v>
@@ -10461,7 +10461,7 @@
         <v>14</v>
       </c>
       <c r="D304" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E304" t="s">
         <v>884</v>
@@ -10478,7 +10478,7 @@
         <v>886</v>
       </c>
       <c r="C305" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D305" t="s">
         <v>20</v>
@@ -10498,7 +10498,7 @@
         <v>889</v>
       </c>
       <c r="C306" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D306" t="s">
         <v>20</v>
@@ -10701,7 +10701,7 @@
         <v>24</v>
       </c>
       <c r="D316" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="E316" t="s">
         <v>920</v>
@@ -10761,7 +10761,7 @@
         <v>59</v>
       </c>
       <c r="D319" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E319" t="s">
         <v>929</v>
@@ -10778,7 +10778,7 @@
         <v>931</v>
       </c>
       <c r="C320" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D320" t="s">
         <v>20</v>
@@ -11338,7 +11338,7 @@
         <v>1011</v>
       </c>
       <c r="C348" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D348" t="s">
         <v>20</v>
@@ -11358,7 +11358,7 @@
         <v>1014</v>
       </c>
       <c r="C349" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D349" t="s">
         <v>20</v>
@@ -11601,7 +11601,7 @@
         <v>19</v>
       </c>
       <c r="D361" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="E361" t="s">
         <v>1047</v>
@@ -11618,7 +11618,7 @@
         <v>1049</v>
       </c>
       <c r="C362" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D362" t="s">
         <v>20</v>
@@ -11638,7 +11638,7 @@
         <v>1052</v>
       </c>
       <c r="C363" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D363" t="s">
         <v>20</v>
@@ -11827,7 +11827,7 @@
         <v>1079</v>
       </c>
       <c r="F372" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -12018,7 +12018,7 @@
         <v>1106</v>
       </c>
       <c r="C382" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D382" t="s">
         <v>20</v>
@@ -12038,7 +12038,7 @@
         <v>1109</v>
       </c>
       <c r="C383" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D383" t="s">
         <v>20</v>
@@ -12121,7 +12121,7 @@
         <v>19</v>
       </c>
       <c r="D387" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="E387" t="s">
         <v>1118</v>
@@ -12318,7 +12318,7 @@
         <v>1146</v>
       </c>
       <c r="C397" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D397" t="s">
         <v>20</v>
@@ -12338,7 +12338,7 @@
         <v>1149</v>
       </c>
       <c r="C398" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D398" t="s">
         <v>20</v>
@@ -12461,7 +12461,7 @@
         <v>59</v>
       </c>
       <c r="D404" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="E404" t="s">
         <v>1167</v>
@@ -12481,7 +12481,7 @@
         <v>59</v>
       </c>
       <c r="D405" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="E405" t="s">
         <v>1171</v>
@@ -12518,7 +12518,7 @@
         <v>1176</v>
       </c>
       <c r="C407" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D407" t="s">
         <v>20</v>
@@ -12538,7 +12538,7 @@
         <v>1179</v>
       </c>
       <c r="C408" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D408" t="s">
         <v>20</v>
@@ -12641,7 +12641,7 @@
         <v>59</v>
       </c>
       <c r="D413" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="E413" t="s">
         <v>1195</v>
@@ -12658,7 +12658,7 @@
         <v>1197</v>
       </c>
       <c r="C414" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D414" t="s">
         <v>20</v>
@@ -12738,7 +12738,7 @@
         <v>1209</v>
       </c>
       <c r="C418" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D418" t="s">
         <v>20</v>
@@ -12758,7 +12758,7 @@
         <v>1212</v>
       </c>
       <c r="C419" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D419" t="s">
         <v>20</v>
@@ -12778,7 +12778,7 @@
         <v>1215</v>
       </c>
       <c r="C420" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D420" t="s">
         <v>20</v>
@@ -12838,7 +12838,7 @@
         <v>1225</v>
       </c>
       <c r="C423" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D423" t="s">
         <v>20</v>
@@ -12858,7 +12858,7 @@
         <v>1228</v>
       </c>
       <c r="C424" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D424" t="s">
         <v>20</v>
@@ -12878,7 +12878,7 @@
         <v>1231</v>
       </c>
       <c r="C425" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D425" t="s">
         <v>20</v>
@@ -12898,7 +12898,7 @@
         <v>1234</v>
       </c>
       <c r="C426" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D426" t="s">
         <v>20</v>
@@ -12918,7 +12918,7 @@
         <v>1237</v>
       </c>
       <c r="C427" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D427" t="s">
         <v>20</v>
@@ -12938,7 +12938,7 @@
         <v>1240</v>
       </c>
       <c r="C428" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D428" t="s">
         <v>20</v>
@@ -12958,7 +12958,7 @@
         <v>1243</v>
       </c>
       <c r="C429" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D429" t="s">
         <v>20</v>
@@ -12978,7 +12978,7 @@
         <v>1246</v>
       </c>
       <c r="C430" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D430" t="s">
         <v>20</v>
@@ -12998,7 +12998,7 @@
         <v>1249</v>
       </c>
       <c r="C431" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D431" t="s">
         <v>20</v>
@@ -13018,7 +13018,7 @@
         <v>1252</v>
       </c>
       <c r="C432" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D432" t="s">
         <v>20</v>
@@ -13038,7 +13038,7 @@
         <v>1255</v>
       </c>
       <c r="C433" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D433" t="s">
         <v>20</v>
@@ -13058,7 +13058,7 @@
         <v>1258</v>
       </c>
       <c r="C434" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D434" t="s">
         <v>20</v>
@@ -13078,7 +13078,7 @@
         <v>1261</v>
       </c>
       <c r="C435" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D435" t="s">
         <v>20</v>
@@ -13098,7 +13098,7 @@
         <v>1264</v>
       </c>
       <c r="C436" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D436" t="s">
         <v>20</v>
@@ -13118,7 +13118,7 @@
         <v>1267</v>
       </c>
       <c r="C437" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D437" t="s">
         <v>20</v>
@@ -13138,7 +13138,7 @@
         <v>1270</v>
       </c>
       <c r="C438" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D438" t="s">
         <v>20</v>
@@ -13178,7 +13178,7 @@
         <v>1276</v>
       </c>
       <c r="C440" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D440" t="s">
         <v>20</v>
@@ -13198,7 +13198,7 @@
         <v>1279</v>
       </c>
       <c r="C441" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D441" t="s">
         <v>20</v>
@@ -13218,7 +13218,7 @@
         <v>1282</v>
       </c>
       <c r="C442" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D442" t="s">
         <v>20</v>
@@ -13238,7 +13238,7 @@
         <v>1285</v>
       </c>
       <c r="C443" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D443" t="s">
         <v>20</v>
@@ -13278,7 +13278,7 @@
         <v>1290</v>
       </c>
       <c r="C445" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D445" t="s">
         <v>20</v>
@@ -13298,7 +13298,7 @@
         <v>1293</v>
       </c>
       <c r="C446" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D446" t="s">
         <v>20</v>
@@ -13318,7 +13318,7 @@
         <v>1296</v>
       </c>
       <c r="C447" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D447" t="s">
         <v>20</v>
